--- a/MasterSheet/templates/pathways.xlsx
+++ b/MasterSheet/templates/pathways.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvdon\Documents\LBUSD_RESEARCH\MasterSheet\MasterSheet\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A773630A-57BE-4E42-98AB-C65E61A32DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E680A1F-A997-4B30-9F3B-5FEE93C45141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,16 +59,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,13 +87,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,20 +392,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -385,7 +412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
@@ -423,67 +450,91 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="e">
+        <f ca="1">IF(ISBLANK(IMPORTRANGE(URL, "Pathways!D{{19}}")), "---", IMPORTRANGE(URL, "Pathways!D{{19}}"))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="e">
+        <f ca="1">IF(ISBLANK(IMPORTRANGE(URL, "Pathways!D{{20}}")), "---", IMPORTRANGE(URL, "Pathways!D{{20}}"))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="e">
+        <f ca="1">IF(ISBLANK(IMPORTRANGE(URL, "Pathways!D{{21}}")), "---", IMPORTRANGE(URL, "Pathways!D{{21}}"))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="e">
+        <f ca="1">IF(ISBLANK(IMPORTRANGE(URL, "Pathways!D{{22}}")), "---", IMPORTRANGE(URL, "Pathways!D{{22}}"))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="e">
+        <f ca="1">IF(ISBLANK(IMPORTRANGE(URL, "Pathways!D{{23}}")), "---", IMPORTRANGE(URL, "Pathways!D{{23}}"))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="e">
+        <f ca="1">IF(ISBLANK(IMPORTRANGE(URL, "Pathways!D{{24}}")), "---", IMPORTRANGE(URL, "Pathways!D{{24}}"))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
@@ -493,81 +544,108 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="e">
         <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="e">
+        <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="e">
+        <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="e">
+        <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="e">
+        <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="e">
+        <f ca="1">IMPORTRANGE(URL, "Pathways!A{{1}}")</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
